--- a/ScansSep24.xlsx
+++ b/ScansSep24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wolfwalker\Documents\git\6s7p\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diego\git\6s7p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9517ADF4-B9C0-40F3-83BA-92B3FE4B87FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961DFFD2-F0C8-40EF-9B14-DAFD53AFCD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3D080EF3-E891-48AE-ADEA-FE9E1802C9D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D080EF3-E891-48AE-ADEA-FE9E1802C9D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -123,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +176,4256 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sep</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 24 ratios</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>4.6256173765732933E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4187863844358993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5406795054042264E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5820706661105749E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6273691103692165E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7271256363399454E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7823014268921625E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7019900916961961E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.730093238673129E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4746562759157225E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8149040464313994E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9610617464659244E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9338076888171059E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.8591681484778874E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8346755261808455E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.9052850108599055E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9643573035553931E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6009212354332451E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.043667976610277E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D27E-47C9-88C2-73E17456352B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1670340096"/>
+        <c:axId val="1673135952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1670340096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673135952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1673135952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1670340096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sep</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>24 Temperatures, 7 avged measurements</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>14.3542857142857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.337142857142799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.322857142857099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.374285714285699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.314285714285701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.3485714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.342857142857101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.3542857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.3485714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.3542857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.351428571428499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.3628571428571</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.3599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.3314285714285</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.357142857142801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.357142857142801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADAB-4538-A50D-45207CF2B52B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>14.351428571428499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.342857142857101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.342857142857101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.3657142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.342857142857101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.3542857142857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.3628571428571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.3457142857142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.3657142857142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.351428571428499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.3485714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.3485714285714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.357142857142801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.357142857142801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.3657142857142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADAB-4538-A50D-45207CF2B52B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temp2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>14.357142857142801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.328571428571401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.3485714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.3457142857142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.3342857142857</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.3485714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.3028571428571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.351428571428499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.3542857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.351428571428499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.351428571428499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.3542857142857</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.3657142857142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.3457142857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.3657142857142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADAB-4538-A50D-45207CF2B52B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1682630912"/>
+        <c:axId val="1682630080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1682630912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682630080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1682630080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682630912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>456alph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8.5519768469580107E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0790548385631794E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4305514592665498E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5374923158791999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4990247682185896E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7189555199875396E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8119899879089497E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6752290344375801E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7614194115352304E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3221122547735598E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7942594399636198E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9771981438747706E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0114271971595106E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1125934214879398E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0862963109148098E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0369736343305002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.1415861556441894E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6383392822958007E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1971690370060699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9327-4AC6-BB85-6321564577FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1680004480"/>
+        <c:axId val="1680004896"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1680004480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1680004896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1680004896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1680004480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>894alph</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.8488292806642399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.82834247589331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8566717710934399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8632389017968001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8366861526506699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.84445182775771</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8426253808170201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.84501218957441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8522720313210901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8194928513058199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.82646618814378</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.80953162904489</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.82646502772791</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.87534021113108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.87940147414454</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8422932845539799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.84144403729706</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8435113817470401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8235080262335699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F42A-40B7-B20C-3E47CED80E31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1673366608"/>
+        <c:axId val="1673367856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1673366608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673367856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1673367856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673366608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3593B0-DBD9-4E92-AAB4-34BA9AD1555F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381003</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B522720E-67A0-4149-B636-7EB138C662E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC01EE4A-A83F-43A4-A811-CA764B27A3DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13413C65-2B1D-4897-8CFE-D3C85A07F6BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,687 +4745,757 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59FACBB-4B69-4D31-96B7-FB051F410F11}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K20"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="42.75">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>14.3542857142857</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>14.351428571428499</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>14.357142857142801</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>8.5519768469580107E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>3.0121007122254399E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1.8488292806642399</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>5.0605751298131397E-3</v>
       </c>
-      <c r="J2">
-        <f>STDEV(B2:D2)</f>
+      <c r="K2">
+        <f t="shared" ref="K2:K20" si="0">STDEV(C2:E2)</f>
         <v>2.857142857150663E-3</v>
       </c>
-      <c r="K2">
-        <f>E2/G2</f>
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="1">F2/H2</f>
         <v>4.6256173765732933E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="42.75">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
         <v>14.337142857142799</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>14.342857142857101</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>14.328571428571401</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>8.0790548385631794E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2.2838537176059302E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1.82834247589331</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>4.41407097448588E-3</v>
       </c>
-      <c r="J3">
-        <f>STDEV(B3:D3)</f>
+      <c r="K3">
+        <f t="shared" si="0"/>
         <v>7.1903185097730764E-3</v>
       </c>
-      <c r="K3">
-        <f>E3/G3</f>
+      <c r="L3">
+        <f t="shared" si="1"/>
         <v>4.4187863844358993E-2</v>
       </c>
+      <c r="N3">
+        <f>AVERAGE(L2:L10,L12:L18,L20)</f>
+        <v>4.7678212284643161E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="42.75">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
         <v>14.322857142857099</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>14.342857142857101</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>14.3485714285714</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>8.4305514592665498E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>3.1694822785851097E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1.8566717710934399</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>4.6278982445172199E-3</v>
       </c>
-      <c r="J4">
-        <f>STDEV(B4:D4)</f>
+      <c r="K4">
+        <f t="shared" si="0"/>
         <v>1.3502330360727868E-2</v>
       </c>
-      <c r="K4">
-        <f>E4/G4</f>
+      <c r="L4">
+        <f t="shared" si="1"/>
         <v>4.5406795054042264E-2</v>
       </c>
+      <c r="N4">
+        <f>STDEV(L2:L10,L12:L18,L20)</f>
+        <v>1.7121472929891226E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="42.75">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
         <v>14.374285714285699</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>14.34</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>14.3457142857142</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>8.5374923158791999E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3.4939179204859998E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1.8632389017968001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>5.1075578570158797E-3</v>
       </c>
-      <c r="J5">
-        <f>STDEV(B5:D5)</f>
+      <c r="K5">
+        <f t="shared" si="0"/>
         <v>1.836885859237692E-2</v>
       </c>
-      <c r="K5">
-        <f>E5/G5</f>
+      <c r="L5">
+        <f t="shared" si="1"/>
         <v>4.5820706661105749E-2</v>
       </c>
+      <c r="O5">
+        <f>100*N4/N3</f>
+        <v>3.5910475895519136</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="42.75">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
         <v>14.314285714285701</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>14.3657142857142</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>14.3342857142857</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>8.4990247682185896E-2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2.91036574533034E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1.8366861526506699</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>4.7899085846879299E-3</v>
       </c>
-      <c r="J6">
-        <f>STDEV(B6:D6)</f>
+      <c r="K6">
+        <f t="shared" si="0"/>
         <v>2.5925062073896946E-2</v>
       </c>
-      <c r="K6">
-        <f>E6/G6</f>
+      <c r="L6">
+        <f t="shared" si="1"/>
         <v>4.6273691103692165E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="42.75">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
         <v>14.3485714285714</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>14.34</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>14.3485714285714</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>8.7189555199875396E-2</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2.32515459077548E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1.84445182775771</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>5.2594245689663701E-3</v>
       </c>
-      <c r="J7">
-        <f>STDEV(B7:D7)</f>
+      <c r="K7">
+        <f t="shared" si="0"/>
         <v>4.9487165930377141E-3</v>
       </c>
-      <c r="K7">
-        <f>E7/G7</f>
+      <c r="L7">
+        <f t="shared" si="1"/>
         <v>4.7271256363399454E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="42.75">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
-        <v>14.342857142857101</v>
+      <c r="B8">
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>14.342857142857101</v>
       </c>
       <c r="D8" s="1">
+        <v>14.342857142857101</v>
+      </c>
+      <c r="E8" s="1">
         <v>14.3028571428571</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>8.8119899879089497E-2</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>2.79561289281786E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1.8426253808170201</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>5.0606267366959199E-3</v>
       </c>
-      <c r="J8">
-        <f>STDEV(B8:D8)</f>
+      <c r="K8">
+        <f t="shared" si="0"/>
         <v>2.3094010767585563E-2</v>
       </c>
-      <c r="K8">
-        <f>E8/G8</f>
+      <c r="L8">
+        <f t="shared" si="1"/>
         <v>4.7823014268921625E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="42.75">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
         <v>14.3542857142857</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14.34</v>
       </c>
       <c r="D9" s="1">
         <v>14.34</v>
       </c>
       <c r="E9" s="1">
+        <v>14.34</v>
+      </c>
+      <c r="F9" s="1">
         <v>8.6752290344375801E-2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>3.2908415131991997E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1.84501218957441</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>5.1010130099909097E-3</v>
       </c>
-      <c r="J9">
-        <f>STDEV(B9:D9)</f>
+      <c r="K9">
+        <f t="shared" si="0"/>
         <v>8.2478609884149914E-3</v>
       </c>
-      <c r="K9">
-        <f>E9/G9</f>
+      <c r="L9">
+        <f t="shared" si="1"/>
         <v>4.7019900916961961E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="42.75">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
         <v>14.3485714285714</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>14.3542857142857</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>14.36</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>8.7614194115352304E-2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>3.2296752647429899E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>1.8522720313210901</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>4.5274343651853996E-3</v>
       </c>
-      <c r="J10">
-        <f>STDEV(B10:D10)</f>
+      <c r="K10">
+        <f t="shared" si="0"/>
         <v>5.7142857142995496E-3</v>
       </c>
-      <c r="K10">
-        <f>E10/G10</f>
+      <c r="L10">
+        <f t="shared" si="1"/>
         <v>4.730093238673129E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="42.75">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
         <v>14.34</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>14.3628571428571</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>14.351428571428499</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>6.3221122547735598E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>3.3198575323523903E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1.8194928513058199</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>4.8774700302210696E-3</v>
       </c>
-      <c r="J11">
-        <f>STDEV(B11:D11)</f>
+      <c r="K11">
+        <f t="shared" si="0"/>
         <v>1.1428571428550249E-2</v>
       </c>
-      <c r="K11">
-        <f>E11/G11</f>
+      <c r="L11">
+        <f t="shared" si="1"/>
         <v>3.4746562759157225E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="42.75">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
         <v>14.3542857142857</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>14.3457142857142</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>14.3542857142857</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>8.7942594399636198E-2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>2.95474199170516E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1.82646618814378</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>4.1777596190140801E-3</v>
       </c>
-      <c r="J12">
-        <f>STDEV(B12:D12)</f>
+      <c r="K12">
+        <f t="shared" si="0"/>
         <v>4.9487165930951456E-3</v>
       </c>
-      <c r="K12">
-        <f>E12/G12</f>
+      <c r="L12">
+        <f t="shared" si="1"/>
         <v>4.8149040464313994E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="42.75">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
         <v>14.351428571428499</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>14.3657142857142</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>14.351428571428499</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>8.9771981438747706E-2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>2.9096639139764301E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>1.80953162904489</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>4.7641403858142504E-3</v>
       </c>
-      <c r="J13">
-        <f>STDEV(B13:D13)</f>
+      <c r="K13">
+        <f t="shared" si="0"/>
         <v>8.2478609884149914E-3</v>
       </c>
-      <c r="K13">
-        <f>E13/G13</f>
+      <c r="L13">
+        <f t="shared" si="1"/>
         <v>4.9610617464659244E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="42.75">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
         <v>14.3628571428571</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>14.351428571428499</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>14.36</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>9.0114271971595106E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>2.7599984628663799E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>1.82646502772791</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>4.5227496699860601E-3</v>
       </c>
-      <c r="J14">
-        <f>STDEV(B14:D14)</f>
+      <c r="K14">
+        <f t="shared" si="0"/>
         <v>5.9476171413550254E-3</v>
       </c>
-      <c r="K14">
-        <f>E14/G14</f>
+      <c r="L14">
+        <f t="shared" si="1"/>
         <v>4.9338076888171059E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="42.75">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
         <v>14.3599999999999</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>14.3485714285714</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>14.351428571428499</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>9.1125934214879398E-2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>2.74628016301567E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>1.87534021113108</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>4.6290547995942299E-3</v>
       </c>
-      <c r="J15">
-        <f>STDEV(B15:D15)</f>
+      <c r="K15">
+        <f t="shared" si="0"/>
         <v>5.9476171412985637E-3</v>
       </c>
-      <c r="K15">
-        <f>E15/G15</f>
+      <c r="L15">
+        <f t="shared" si="1"/>
         <v>4.8591681484778874E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="42.75">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
         <v>14.36</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>14.3485714285714</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>14.3542857142857</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>9.0862963109148098E-2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>2.7929868184854399E-2</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>1.87940147414454</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>1.8034738787176699E-6</v>
       </c>
-      <c r="J16">
-        <f>STDEV(B16:D16)</f>
+      <c r="K16">
+        <f t="shared" si="0"/>
         <v>5.7142857142995496E-3</v>
       </c>
-      <c r="K16">
-        <f>E16/G16</f>
+      <c r="L16">
+        <f t="shared" si="1"/>
         <v>4.8346755261808455E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="42.75">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
         <v>14.36</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>14.357142857142801</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>14.3657142857142</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>9.0369736343305002E-2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>2.82217364721093E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1.8422932845539799</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>4.6194509396900096E-3</v>
       </c>
-      <c r="J17">
-        <f>STDEV(B17:D17)</f>
+      <c r="K17">
+        <f t="shared" si="0"/>
         <v>4.3643578046974659E-3</v>
       </c>
-      <c r="K17">
-        <f>E17/G17</f>
+      <c r="L17">
+        <f t="shared" si="1"/>
         <v>4.9052850108599055E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="42.75">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
         <v>14.3314285714285</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>14.357142857142801</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>14.3457142857142</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>9.1415861556441894E-2</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2.5402078479503699E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>1.84144403729706</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>4.4790143957952801E-3</v>
       </c>
-      <c r="J18">
-        <f>STDEV(B18:D18)</f>
+      <c r="K18">
+        <f t="shared" si="0"/>
         <v>1.2883570722357896E-2</v>
       </c>
-      <c r="K18">
-        <f>E18/G18</f>
+      <c r="L18">
+        <f t="shared" si="1"/>
         <v>4.9643573035553931E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="42.75">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
         <v>14.357142857142801</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>14.34</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>14.36</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>6.6383392822958007E-2</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>2.79112955945966E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>1.8435113817470401</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>4.7226914920551798E-3</v>
       </c>
-      <c r="J19">
-        <f>STDEV(B19:D19)</f>
+      <c r="K19">
+        <f t="shared" si="0"/>
         <v>1.0816968277702288E-2</v>
       </c>
-      <c r="K19">
-        <f>E19/G19</f>
+      <c r="L19">
+        <f t="shared" si="1"/>
         <v>3.6009212354332451E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="42.75">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
         <v>14.357142857142801</v>
-      </c>
-      <c r="C20" s="1">
-        <v>14.3657142857142</v>
       </c>
       <c r="D20" s="1">
         <v>14.3657142857142</v>
       </c>
       <c r="E20" s="1">
+        <v>14.3657142857142</v>
+      </c>
+      <c r="F20" s="1">
         <v>9.1971690370060699E-2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>2.6989539574021101E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>1.8235080262335699</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>4.9953275036153499E-3</v>
       </c>
-      <c r="J20">
-        <f>STDEV(B20:D20)</f>
+      <c r="K20">
+        <f t="shared" si="0"/>
         <v>4.948716593036688E-3</v>
       </c>
-      <c r="K20">
-        <f>E20/G20</f>
+      <c r="L20">
+        <f t="shared" si="1"/>
         <v>5.043667976610277E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ScansSep24.xlsx
+++ b/ScansSep24.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diego\git\6s7p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961DFFD2-F0C8-40EF-9B14-DAFD53AFCD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3221CEF-9A9C-4C7F-9302-ADF53F604D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D080EF3-E891-48AE-ADEA-FE9E1802C9D2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D080EF3-E891-48AE-ADEA-FE9E1802C9D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
